--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/АЭХК ИБПО_LAR (Средний возраст)(01.09.2015 23-55-30).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/АЭХК ИБПО_LAR (Средний возраст)(01.09.2015 23-55-30).xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
     <t>Возрастные группы</t>
   </si>
@@ -82,12 +72,15 @@
   </si>
   <si>
     <t>Взвешенные величины</t>
+  </si>
+  <si>
+    <t>Б</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -162,8 +155,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -177,14 +184,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,17 +442,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -754,6 +755,310 @@
       </c>
       <c r="G13" s="3">
         <v>38.971192729999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>70.884087942977558</v>
+      </c>
+      <c r="C18" s="5">
+        <v>67.129983947971638</v>
+      </c>
+      <c r="D18" s="5">
+        <v>52.620434723482497</v>
+      </c>
+      <c r="E18" s="5">
+        <v>50.148602333902979</v>
+      </c>
+      <c r="F18" s="5">
+        <v>50.900114529639431</v>
+      </c>
+      <c r="G18" s="5">
+        <v>33.798531887741042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>80.111705385286569</v>
+      </c>
+      <c r="C19" s="5">
+        <v>74.755069996563464</v>
+      </c>
+      <c r="D19" s="5">
+        <v>63.05305406564581</v>
+      </c>
+      <c r="E19" s="5">
+        <v>60.417634070247338</v>
+      </c>
+      <c r="F19" s="5">
+        <v>51.134308559773672</v>
+      </c>
+      <c r="G19" s="5">
+        <v>38.302442641359185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5">
+        <v>81.197728349721444</v>
+      </c>
+      <c r="C20" s="5">
+        <v>74.915951494230896</v>
+      </c>
+      <c r="D20" s="5">
+        <v>63.840644556605334</v>
+      </c>
+      <c r="E20" s="5">
+        <v>58.187072233762322</v>
+      </c>
+      <c r="F20" s="5">
+        <v>49.553187071469111</v>
+      </c>
+      <c r="G20" s="5">
+        <v>36.540926383927875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5">
+        <v>84.682324185735908</v>
+      </c>
+      <c r="C21" s="5">
+        <v>77.24914406411618</v>
+      </c>
+      <c r="D21" s="5">
+        <v>67.778015611408264</v>
+      </c>
+      <c r="E21" s="5">
+        <v>62.275420271409985</v>
+      </c>
+      <c r="F21" s="5">
+        <v>49.737737863650622</v>
+      </c>
+      <c r="G21" s="5">
+        <v>38.22128979577748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5">
+        <v>86.906488466951259</v>
+      </c>
+      <c r="C22" s="5">
+        <v>77.620603039752908</v>
+      </c>
+      <c r="D22" s="5">
+        <v>69.493367610986311</v>
+      </c>
+      <c r="E22" s="5">
+        <v>68.462214578184188</v>
+      </c>
+      <c r="F22" s="5">
+        <v>49.515776528879705</v>
+      </c>
+      <c r="G22" s="5">
+        <v>40.318680843558468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5">
+        <v>88.790638182936149</v>
+      </c>
+      <c r="C23" s="5">
+        <v>76.629341987911587</v>
+      </c>
+      <c r="D23" s="5">
+        <v>69.869668584982293</v>
+      </c>
+      <c r="E23" s="5">
+        <v>70.677802530326048</v>
+      </c>
+      <c r="F23" s="5">
+        <v>49.891055972141857</v>
+      </c>
+      <c r="G23" s="5">
+        <v>41.334856974976198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5">
+        <v>91.50184936545476</v>
+      </c>
+      <c r="C24" s="5">
+        <v>79.755596316746079</v>
+      </c>
+      <c r="D24" s="5">
+        <v>74.254914891094089</v>
+      </c>
+      <c r="E24" s="5">
+        <v>75.477702584154471</v>
+      </c>
+      <c r="F24" s="5">
+        <v>52.066516736803166</v>
+      </c>
+      <c r="G24" s="5">
+        <v>44.532678002463001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="5">
+        <v>88.662256174609468</v>
+      </c>
+      <c r="C25" s="5">
+        <v>80.549889929430378</v>
+      </c>
+      <c r="D25" s="5">
+        <v>73.027413780103529</v>
+      </c>
+      <c r="E25" s="5">
+        <v>74.272085741982991</v>
+      </c>
+      <c r="F25" s="5">
+        <v>62.156562874333638</v>
+      </c>
+      <c r="G25" s="5">
+        <v>51.144136884894436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="5">
+        <v>69.646571129521845</v>
+      </c>
+      <c r="C26" s="5">
+        <v>97.240592381541248</v>
+      </c>
+      <c r="D26" s="5">
+        <v>68.296699432556892</v>
+      </c>
+      <c r="E26" s="5">
+        <v>67.804150390267452</v>
+      </c>
+      <c r="F26" s="5">
+        <v>97.240592381541248</v>
+      </c>
+      <c r="G26" s="5">
+        <v>66.52409443571058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="6">
+        <v>84.940497280000002</v>
+      </c>
+      <c r="C29" s="6">
+        <v>76.788339449999995</v>
+      </c>
+      <c r="D29" s="6">
+        <v>67.630869009999998</v>
+      </c>
+      <c r="E29" s="6">
+        <v>64.814386389999996</v>
+      </c>
+      <c r="F29" s="6">
+        <v>50.634337590000001</v>
+      </c>
+      <c r="G29" s="6">
+        <v>39.681929400000001</v>
       </c>
     </row>
   </sheetData>
@@ -762,10 +1067,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1068,6 +1375,310 @@
         <v>54.648793300000001</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8">
+        <v>83.102367613100725</v>
+      </c>
+      <c r="C19" s="8">
+        <v>85.919580871211721</v>
+      </c>
+      <c r="D19" s="8">
+        <v>73.14132239969868</v>
+      </c>
+      <c r="E19" s="8">
+        <v>74.629089633404647</v>
+      </c>
+      <c r="F19" s="8">
+        <v>83.016328404252349</v>
+      </c>
+      <c r="G19" s="8">
+        <v>64.74397698328319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8">
+        <v>84.216165431069186</v>
+      </c>
+      <c r="C20" s="8">
+        <v>71.158565423631742</v>
+      </c>
+      <c r="D20" s="8">
+        <v>62.784830336090131</v>
+      </c>
+      <c r="E20" s="8">
+        <v>75.885683814452051</v>
+      </c>
+      <c r="F20" s="8">
+        <v>55.963701664824306</v>
+      </c>
+      <c r="G20" s="8">
+        <v>47.5136029547795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8">
+        <v>83.085859302112482</v>
+      </c>
+      <c r="C21" s="8">
+        <v>70.895606264726865</v>
+      </c>
+      <c r="D21" s="8">
+        <v>61.95388988759796</v>
+      </c>
+      <c r="E21" s="8">
+        <v>75.347362585766433</v>
+      </c>
+      <c r="F21" s="8">
+        <v>54.382811601249784</v>
+      </c>
+      <c r="G21" s="8">
+        <v>46.167804099152164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8">
+        <v>84.791241976990619</v>
+      </c>
+      <c r="C22" s="8">
+        <v>80.576586489346184</v>
+      </c>
+      <c r="D22" s="8">
+        <v>70.401303675407348</v>
+      </c>
+      <c r="E22" s="8">
+        <v>76.186251759422106</v>
+      </c>
+      <c r="F22" s="8">
+        <v>72.866379918717556</v>
+      </c>
+      <c r="G22" s="8">
+        <v>59.348687348236211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8">
+        <v>91.063106795593569</v>
+      </c>
+      <c r="C23" s="8">
+        <v>73.076100149648767</v>
+      </c>
+      <c r="D23" s="8">
+        <v>68.185759110653578</v>
+      </c>
+      <c r="E23" s="8">
+        <v>88.583980657137317</v>
+      </c>
+      <c r="F23" s="8">
+        <v>59.9730602746613</v>
+      </c>
+      <c r="G23" s="8">
+        <v>55.670062347492049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8">
+        <v>96.052750176564302</v>
+      </c>
+      <c r="C24" s="8">
+        <v>87.481365454608238</v>
+      </c>
+      <c r="D24" s="8">
+        <v>84.445532750223407</v>
+      </c>
+      <c r="E24" s="8">
+        <v>96.052750176564302</v>
+      </c>
+      <c r="F24" s="8">
+        <v>87.481365454608238</v>
+      </c>
+      <c r="G24" s="8">
+        <v>84.445532750223407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="9">
+        <v>86.154865189999995</v>
+      </c>
+      <c r="C29" s="9">
+        <v>77.274519999999995</v>
+      </c>
+      <c r="D29" s="9">
+        <v>68.701898220000004</v>
+      </c>
+      <c r="E29" s="9">
+        <v>79.261436140000001</v>
+      </c>
+      <c r="F29" s="9">
+        <v>67.031963759999996</v>
+      </c>
+      <c r="G29" s="9">
+        <v>56.830731630000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/АЭХК ИБПО_LAR (Средний возраст)(01.09.2015 23-55-30).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/АЭХК ИБПО_LAR (Средний возраст)(01.09.2015 23-55-30).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
@@ -234,26 +234,50 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внешнее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внутреннее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -266,26 +290,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -294,10 +298,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -376,36 +380,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$B$2:$B$10</c:f>
+              <c:f>Мужчины!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>68.827520470411287</c:v>
+                  <c:v>67.681252947861523</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.416402576766473</c:v>
+                  <c:v>74.676034573394134</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.313836117470061</c:v>
+                  <c:v>74.710040200926599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.014290043082354</c:v>
+                  <c:v>77.389214498731704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.57158739504149</c:v>
+                  <c:v>78.243771079154016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.439881729448089</c:v>
+                  <c:v>77.725064231294354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.200040725781093</c:v>
+                  <c:v>80.887339769172783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>85.83942406311435</c:v>
+                  <c:v>81.802171410255895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.156537777439951</c:v>
+                  <c:v>97.465884228156384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,36 +489,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$B$16:$B$24</c:f>
+              <c:f>Мужчины!$C$16:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>70.884087942977558</c:v>
+                  <c:v>67.129983947971638</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80.111705385286569</c:v>
+                  <c:v>74.755069996563464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.197728349721444</c:v>
+                  <c:v>74.915951494230896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.682324185735908</c:v>
+                  <c:v>77.24914406411618</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.906488466951259</c:v>
+                  <c:v>77.620603039752908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.790638182936149</c:v>
+                  <c:v>76.629341987911587</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.50184936545476</c:v>
+                  <c:v>79.755596316746079</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.662256174609468</c:v>
+                  <c:v>80.549889929430378</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69.646571129521845</c:v>
+                  <c:v>97.240592381541248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,36 +599,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$E$2:$E$10</c:f>
+              <c:f>Мужчины!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>47.900636572774026</c:v>
+                  <c:v>51.635668117770678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.620832403034264</c:v>
+                  <c:v>51.381883337352711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.333795337518566</c:v>
+                  <c:v>49.105054970266707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.854633188765042</c:v>
+                  <c:v>49.97270368442981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.290772783492329</c:v>
+                  <c:v>50.391844325516054</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.610589773748742</c:v>
+                  <c:v>51.700933817690782</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.250775890158025</c:v>
+                  <c:v>53.605293413633952</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.901565561022537</c:v>
+                  <c:v>63.837391544809726</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.739039293393205</c:v>
+                  <c:v>97.465884228156384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,36 +709,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$E$16:$E$24</c:f>
+              <c:f>Мужчины!$F$16:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50.148602333902979</c:v>
+                  <c:v>50.900114529639431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.417634070247338</c:v>
+                  <c:v>51.134308559773672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.187072233762322</c:v>
+                  <c:v>49.553187071469111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62.275420271409985</c:v>
+                  <c:v>49.737737863650622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.462214578184188</c:v>
+                  <c:v>49.515776528879705</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.677802530326048</c:v>
+                  <c:v>49.891055972141857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.477702584154471</c:v>
+                  <c:v>52.066516736803166</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.272085741982991</c:v>
+                  <c:v>62.156562874333638</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.804150390267452</c:v>
+                  <c:v>97.240592381541248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,11 +755,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="338823152"/>
-        <c:axId val="197721344"/>
+        <c:axId val="412113384"/>
+        <c:axId val="412120048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338823152"/>
+        <c:axId val="412113384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +799,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -810,26 +818,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -868,7 +856,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197721344"/>
+        <c:crossAx val="412120048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -876,11 +864,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197721344"/>
+        <c:axId val="412120048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -918,8 +905,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1"/>
-                  <a:t>ИБПО,</a:t>
+                  <a:t>,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
@@ -938,26 +933,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -990,7 +965,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338823152"/>
+        <c:crossAx val="412113384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1009,10 +984,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17043289064522366"/>
+          <c:h val="0.76636949741416249"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1075,7 +1050,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1115,26 +1090,50 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внутреннее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее и внутреннее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1147,26 +1146,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1175,10 +1154,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1257,36 +1236,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$C$2:$C$10</c:f>
+              <c:f>Мужчины!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>67.681252947861523</c:v>
+                  <c:v>51.802131113218159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.676034573394134</c:v>
+                  <c:v>61.943728082547281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.710040200926599</c:v>
+                  <c:v>62.526095910663287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.389214498731704</c:v>
+                  <c:v>66.809648870114231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.243771079154016</c:v>
+                  <c:v>69.123992083385772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.725064231294354</c:v>
+                  <c:v>69.918464363548168</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80.887339769172783</c:v>
+                  <c:v>74.352650462789356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.802171410255895</c:v>
+                  <c:v>72.075484353322736</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.465884228156384</c:v>
+                  <c:v>63.103852922395134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,36 +1345,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$C$16:$C$24</c:f>
+              <c:f>Мужчины!$D$16:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>67.129983947971638</c:v>
+                  <c:v>52.620434723482497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.755069996563464</c:v>
+                  <c:v>63.05305406564581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.915951494230896</c:v>
+                  <c:v>63.840644556605334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.24914406411618</c:v>
+                  <c:v>67.778015611408264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.620603039752908</c:v>
+                  <c:v>69.493367610986311</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.629341987911587</c:v>
+                  <c:v>69.869668584982293</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79.755596316746079</c:v>
+                  <c:v>74.254914891094089</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.549889929430378</c:v>
+                  <c:v>73.027413780103529</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.240592381541248</c:v>
+                  <c:v>68.296699432556892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,36 +1455,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$F$2:$F$10</c:f>
+              <c:f>Мужчины!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>51.635668117770678</c:v>
+                  <c:v>33.065463181188548</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.381883337352711</c:v>
+                  <c:v>37.705836301963402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.105054970266707</c:v>
+                  <c:v>35.165518607425732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.97270368442981</c:v>
+                  <c:v>37.427466929067947</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.391844325516054</c:v>
+                  <c:v>39.744359798281515</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.700933817690782</c:v>
+                  <c:v>41.43727316513386</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.605293413633952</c:v>
+                  <c:v>44.452680619175027</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63.837391544809726</c:v>
+                  <c:v>49.557836047075135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.465884228156384</c:v>
+                  <c:v>60.763587094483825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,36 +1565,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$F$16:$F$24</c:f>
+              <c:f>Мужчины!$G$16:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>50.900114529639431</c:v>
+                  <c:v>33.798531887741042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.134308559773672</c:v>
+                  <c:v>38.302442641359185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.553187071469111</c:v>
+                  <c:v>36.540926383927875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.737737863650622</c:v>
+                  <c:v>38.22128979577748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.515776528879705</c:v>
+                  <c:v>40.318680843558468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.891055972141857</c:v>
+                  <c:v>41.334856974976198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.066516736803166</c:v>
+                  <c:v>44.532678002463001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62.156562874333638</c:v>
+                  <c:v>51.144136884894436</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.240592381541248</c:v>
+                  <c:v>66.52409443571058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,11 +1611,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477598424"/>
-        <c:axId val="477604304"/>
+        <c:axId val="412112992"/>
+        <c:axId val="412110640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="477598424"/>
+        <c:axId val="412112992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,7 +1655,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -1691,26 +1674,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1749,7 +1712,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477604304"/>
+        <c:crossAx val="412110640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1757,7 +1720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="477604304"/>
+        <c:axId val="412110640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -1798,14 +1761,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1818,26 +1793,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1870,7 +1825,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477598424"/>
+        <c:crossAx val="412112992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1889,10 +1844,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17042454068241469"/>
+          <c:h val="0.7766437737556785"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1955,7 +1910,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1995,26 +1950,50 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внешнее и внутреннее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2027,26 +2006,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2055,10 +2014,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2137,36 +2096,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$D$2:$D$10</c:f>
+              <c:f>Мужчины!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>51.802131113218159</c:v>
+                  <c:v>68.827520470411287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.943728082547281</c:v>
+                  <c:v>78.416402576766473</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.526095910663287</c:v>
+                  <c:v>79.313836117470061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.809648870114231</c:v>
+                  <c:v>83.014290043082354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.123992083385772</c:v>
+                  <c:v>85.57158739504149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.918464363548168</c:v>
+                  <c:v>87.439881729448089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.352650462789356</c:v>
+                  <c:v>90.200040725781093</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.075484353322736</c:v>
+                  <c:v>85.83942406311435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63.103852922395134</c:v>
+                  <c:v>64.156537777439951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2246,36 +2205,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$D$16:$D$24</c:f>
+              <c:f>Мужчины!$B$16:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>52.620434723482497</c:v>
+                  <c:v>70.884087942977558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.05305406564581</c:v>
+                  <c:v>80.111705385286569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.840644556605334</c:v>
+                  <c:v>81.197728349721444</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.778015611408264</c:v>
+                  <c:v>84.682324185735908</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.493367610986311</c:v>
+                  <c:v>86.906488466951259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.869668584982293</c:v>
+                  <c:v>88.790638182936149</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.254914891094089</c:v>
+                  <c:v>91.50184936545476</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73.027413780103529</c:v>
+                  <c:v>88.662256174609468</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.296699432556892</c:v>
+                  <c:v>69.646571129521845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,36 +2315,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$G$2:$G$10</c:f>
+              <c:f>Мужчины!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>33.065463181188548</c:v>
+                  <c:v>47.900636572774026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.705836301963402</c:v>
+                  <c:v>58.620832403034264</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.165518607425732</c:v>
+                  <c:v>55.333795337518566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.427466929067947</c:v>
+                  <c:v>59.854633188765042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.744359798281515</c:v>
+                  <c:v>65.290772783492329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.43727316513386</c:v>
+                  <c:v>67.610589773748742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.452680619175027</c:v>
+                  <c:v>72.250775890158025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.557836047075135</c:v>
+                  <c:v>68.901565561022537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.763587094483825</c:v>
+                  <c:v>61.739039293393205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,36 +2425,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Мужчины!$G$16:$G$24</c:f>
+              <c:f>Мужчины!$E$16:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>33.798531887741042</c:v>
+                  <c:v>50.148602333902979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.302442641359185</c:v>
+                  <c:v>60.417634070247338</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.540926383927875</c:v>
+                  <c:v>58.187072233762322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.22128979577748</c:v>
+                  <c:v>62.275420271409985</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.318680843558468</c:v>
+                  <c:v>68.462214578184188</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.334856974976198</c:v>
+                  <c:v>70.677802530326048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.532678002463001</c:v>
+                  <c:v>75.477702584154471</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.144136884894436</c:v>
+                  <c:v>74.272085741982991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>66.52409443571058</c:v>
+                  <c:v>67.804150390267452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2512,11 +2471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470980760"/>
-        <c:axId val="470988208"/>
+        <c:axId val="412115736"/>
+        <c:axId val="412111424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="470980760"/>
+        <c:axId val="412115736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,7 +2515,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -2571,26 +2534,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2629,7 +2572,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470988208"/>
+        <c:crossAx val="412111424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2637,7 +2580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="470988208"/>
+        <c:axId val="412111424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2678,8 +2621,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1"/>
-                  <a:t>ИБПО,</a:t>
+                  <a:t>,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
@@ -2698,26 +2649,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2750,7 +2681,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470980760"/>
+        <c:crossAx val="412115736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2769,10 +2700,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16876830471097479"/>
+          <c:h val="0.78043078469733373"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2835,7 +2766,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2875,26 +2806,42 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внешнее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Суммарное </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
-              <a:t>женщины</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2907,26 +2854,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2935,10 +2862,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2976,37 +2903,40 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$3:$A$12</c:f>
+              <c:f>Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25-29</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30-34</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>35-39</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>40-44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45-49</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>50-54</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>55-59</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>60-64</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>65-69</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>70+</c:v>
                 </c:pt>
               </c:strCache>
@@ -3014,27 +2944,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$B$3:$B$8</c:f>
+              <c:f>Мужчины!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>82.108898202326245</c:v>
+                  <c:v>51.802131113218159</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.570217792818738</c:v>
+                  <c:v>61.943728082547281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.808971130935959</c:v>
+                  <c:v>62.526095910663287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.909569651948914</c:v>
+                  <c:v>66.809648870114231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.141217126985609</c:v>
+                  <c:v>69.123992083385772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.260924648361154</c:v>
+                  <c:v>69.918464363548168</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.352650462789356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.075484353322736</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.103852922395134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3073,37 +3012,40 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$3:$A$12</c:f>
+              <c:f>Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25-29</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30-34</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>35-39</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>40-44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45-49</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>50-54</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>55-59</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>60-64</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>65-69</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>70+</c:v>
                 </c:pt>
               </c:strCache>
@@ -3111,27 +3053,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$B$17:$B$22</c:f>
+              <c:f>Мужчины!$D$16:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>83.102367613100725</c:v>
+                  <c:v>52.620434723482497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.216165431069186</c:v>
+                  <c:v>63.05305406564581</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.085859302112482</c:v>
+                  <c:v>63.840644556605334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.791241976990619</c:v>
+                  <c:v>67.778015611408264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.063106795593569</c:v>
+                  <c:v>69.493367610986311</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.052750176564302</c:v>
+                  <c:v>69.869668584982293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.254914891094089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.027413780103529</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.296699432556892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3171,37 +3122,40 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$3:$A$12</c:f>
+              <c:f>Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25-29</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30-34</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>35-39</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>40-44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45-49</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>50-54</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>55-59</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>60-64</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>65-69</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>70+</c:v>
                 </c:pt>
               </c:strCache>
@@ -3209,27 +3163,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$E$3:$E$8</c:f>
+              <c:f>Мужчины!$G$2:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>72.807724668578061</c:v>
+                  <c:v>33.065463181188548</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.026672002020405</c:v>
+                  <c:v>37.705836301963402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.751183315688351</c:v>
+                  <c:v>35.165518607425732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.92474403793139</c:v>
+                  <c:v>37.427466929067947</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.546108281848447</c:v>
+                  <c:v>39.744359798281515</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.260924648361154</c:v>
+                  <c:v>41.43727316513386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.452680619175027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.557836047075135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.763587094483825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3269,37 +3232,40 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Женщины!$A$3:$A$12</c:f>
+              <c:f>Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25-29</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>30-34</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>35-39</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>40-44</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>45-49</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>50-54</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>55-59</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>60-64</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>65-69</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>70+</c:v>
                 </c:pt>
               </c:strCache>
@@ -3307,27 +3273,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$E$17:$E$22</c:f>
+              <c:f>Мужчины!$G$16:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>74.629089633404647</c:v>
+                  <c:v>33.798531887741042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.885683814452051</c:v>
+                  <c:v>38.302442641359185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.347362585766433</c:v>
+                  <c:v>36.540926383927875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.186251759422106</c:v>
+                  <c:v>38.22128979577748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.583980657137317</c:v>
+                  <c:v>40.318680843558468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.052750176564302</c:v>
+                  <c:v>41.334856974976198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.532678002463001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.144136884894436</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66.52409443571058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3344,11 +3319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="337751728"/>
-        <c:axId val="337752904"/>
+        <c:axId val="412112600"/>
+        <c:axId val="412114560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="337751728"/>
+        <c:axId val="412112600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,7 +3363,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -3403,26 +3382,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3461,7 +3420,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337752904"/>
+        <c:crossAx val="412114560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3469,11 +3428,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337752904"/>
+        <c:axId val="412114560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3511,14 +3469,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3531,26 +3501,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3583,7 +3533,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337751728"/>
+        <c:crossAx val="412112600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -3602,10 +3552,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17042454068241469"/>
+          <c:h val="0.7766437737556785"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3668,7 +3618,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3708,26 +3658,52 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внутреннее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
               <a:t>женщины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3740,26 +3716,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3768,10 +3724,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.6702676260780242E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72400263811478316"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3835,27 +3791,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$C$3:$C$8</c:f>
+              <c:f>Женщины!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>85.413338359244989</c:v>
+                  <c:v>82.108898202326245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.845024345591767</c:v>
+                  <c:v>82.570217792818738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.33818395705724</c:v>
+                  <c:v>80.808971130935959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.266421770162168</c:v>
+                  <c:v>83.909569651948914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71.25195376362143</c:v>
+                  <c:v>90.141217126985609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.159685379989483</c:v>
+                  <c:v>95.260924648361154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3920,27 +3876,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$C$17:$C$22</c:f>
+              <c:f>Женщины!$B$17:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>85.919580871211721</c:v>
+                  <c:v>83.102367613100725</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.158565423631742</c:v>
+                  <c:v>84.216165431069186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.895606264726865</c:v>
+                  <c:v>83.085859302112482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.576586489346184</c:v>
+                  <c:v>84.791241976990619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.076100149648767</c:v>
+                  <c:v>91.063106795593569</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.481365454608238</c:v>
+                  <c:v>96.052750176564302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4006,27 +3962,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$F$3:$F$8</c:f>
+              <c:f>Женщины!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>82.439829690724082</c:v>
+                  <c:v>72.807724668578061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.411662253789274</c:v>
+                  <c:v>73.026672002020405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.537229908828138</c:v>
+                  <c:v>71.751183315688351</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.233968049893676</c:v>
+                  <c:v>74.92474403793139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.475768819175656</c:v>
+                  <c:v>86.546108281848447</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.159685379989483</c:v>
+                  <c:v>95.260924648361154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4092,27 +4048,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$F$17:$F$22</c:f>
+              <c:f>Женщины!$E$17:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>83.016328404252349</c:v>
+                  <c:v>74.629089633404647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.963701664824306</c:v>
+                  <c:v>75.885683814452051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.382811601249784</c:v>
+                  <c:v>75.347362585766433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72.866379918717556</c:v>
+                  <c:v>76.186251759422106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.9730602746613</c:v>
+                  <c:v>88.583980657137317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.481365454608238</c:v>
+                  <c:v>96.052750176564302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4129,11 +4085,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="343313376"/>
-        <c:axId val="197729496"/>
+        <c:axId val="412116128"/>
+        <c:axId val="412116520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="343313376"/>
+        <c:axId val="412116128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4173,7 +4129,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -4188,26 +4148,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4246,7 +4186,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197729496"/>
+        <c:crossAx val="412116520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4254,10 +4194,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197729496"/>
+        <c:axId val="412116520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4295,14 +4236,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4315,26 +4268,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4367,7 +4300,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343313376"/>
+        <c:crossAx val="412116128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -4386,10 +4319,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17376268262674568"/>
+          <c:h val="0.76777615587074255"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4452,7 +4385,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4492,26 +4425,52 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внешнее и внутреннее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внутреннее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
               <a:t>женщины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4524,26 +4483,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4552,10 +4491,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.6707527663910924E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72399788977688651"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4619,27 +4558,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$D$3:$D$8</c:f>
+              <c:f>Женщины!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>72.011129929071288</c:v>
+                  <c:v>85.413338359244989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.870159213515684</c:v>
+                  <c:v>69.845024345591767</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.534494754315382</c:v>
+                  <c:v>69.33818395705724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.807320354846425</c:v>
+                  <c:v>79.266421770162168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.10053030175871</c:v>
+                  <c:v>71.25195376362143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.618403615215669</c:v>
+                  <c:v>86.159685379989483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4704,27 +4643,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$D$17:$D$22</c:f>
+              <c:f>Женщины!$C$17:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>73.14132239969868</c:v>
+                  <c:v>85.919580871211721</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.784830336090131</c:v>
+                  <c:v>71.158565423631742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.95388988759796</c:v>
+                  <c:v>70.895606264726865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.401303675407348</c:v>
+                  <c:v>80.576586489346184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.185759110653578</c:v>
+                  <c:v>73.076100149648767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.445532750223407</c:v>
+                  <c:v>87.481365454608238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4790,27 +4729,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$G$3:$G$8</c:f>
+              <c:f>Женщины!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>63.032244852614767</c:v>
+                  <c:v>82.439829690724082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.305823005741438</c:v>
+                  <c:v>54.411662253789274</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.532633060289157</c:v>
+                  <c:v>52.537229908828138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.520606897569955</c:v>
+                  <c:v>71.233968049893676</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.761306610570742</c:v>
+                  <c:v>57.475768819175656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.618403615215669</c:v>
+                  <c:v>86.159685379989483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4876,27 +4815,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$G$17:$G$22</c:f>
+              <c:f>Женщины!$F$17:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>64.74397698328319</c:v>
+                  <c:v>83.016328404252349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.5136029547795</c:v>
+                  <c:v>55.963701664824306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.167804099152164</c:v>
+                  <c:v>54.382811601249784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.348687348236211</c:v>
+                  <c:v>72.866379918717556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.670062347492049</c:v>
+                  <c:v>59.9730602746613</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.445532750223407</c:v>
+                  <c:v>87.481365454608238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4913,11 +4852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="197731064"/>
-        <c:axId val="197730280"/>
+        <c:axId val="412123968"/>
+        <c:axId val="412122792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197731064"/>
+        <c:axId val="412123968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4957,7 +4896,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -4972,26 +4915,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5030,7 +4953,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197730280"/>
+        <c:crossAx val="412122792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5038,7 +4961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197730280"/>
+        <c:axId val="412122792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -5079,14 +5002,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5099,26 +5034,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5151,7 +5066,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197731064"/>
+        <c:crossAx val="412123968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -5170,10 +5085,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17043289064522366"/>
+          <c:h val="0.77652463161647511"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5236,3387 +5151,1554 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее и внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3378355795413214E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.72732706164538419"/>
+          <c:h val="0.71929705260737298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$17:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50-54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>72.011129929071288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.870159213515684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.534494754315382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.807320354846425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.10053030175871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.618403615215669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$17:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50-54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$17:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>73.14132239969868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.784830336090131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.95388988759796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.401303675407348</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.185759110653578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.445532750223407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$17:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50-54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>63.032244852614767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.305823005741438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.532633060289157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.520606897569955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.761306610570742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.618403615215669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$17:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50-54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$17:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64.74397698328319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.5136029547795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.167804099152164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.348687348236211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.670062347492049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.445532750223407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="412124360"/>
+        <c:axId val="412123576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="412124360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412123576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="412123576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412124360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17542664844797023"/>
+          <c:h val="0.77324456542744979"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Суммарное </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3378355795413214E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.72732706164538419"/>
+          <c:h val="0.71929705260737298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$17:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50-54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>72.011129929071288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.870159213515684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.534494754315382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.807320354846425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.10053030175871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.618403615215669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$17:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50-54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$D$17:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>73.14132239969868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.784830336090131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.95388988759796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.401303675407348</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.185759110653578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.445532750223407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$17:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50-54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>63.032244852614767</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.305823005741438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.532633060289157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.520606897569955</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.761306610570742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.618403615215669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$17:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50-54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$G$17:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64.74397698328319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.5136029547795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.167804099152164</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.348687348236211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.670062347492049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.445532750223407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="412122008"/>
+        <c:axId val="412122400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="412122008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412122400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="412122400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412122008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17542664844797023"/>
+          <c:h val="0.77324456542744979"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>134898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>109104</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="13" name="Диаграмма 12"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8637,18 +6719,18 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>151040</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>147639</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>37667</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="14" name="Диаграмма 13"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8669,18 +6751,18 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>33339</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>117081</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="15" name="Диаграмма 14"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8692,6 +6774,171 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>8843</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>732682</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>743889</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30059</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>728600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>738125</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>181099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>2680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>2680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8965,13 +7212,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="2" max="3" width="6.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
@@ -9587,11 +7838,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="7" width="6.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
